--- a/Senior Design Simulation Test Data.xlsx
+++ b/Senior Design Simulation Test Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerem\Videos\Senior Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90CA84-608F-4FA3-B8C0-3601ED29F489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ACB8D-F30F-4A61-B938-4684A4FA3B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A882684E-0EA5-487D-806E-8C4C12A3FC99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A882684E-0EA5-487D-806E-8C4C12A3FC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t xml:space="preserve">Simulation Data Table </t>
   </si>
@@ -176,6 +177,252 @@
   </si>
   <si>
     <t xml:space="preserve">Conclusion: Best to travel 1m/s in the air velocity for challenge 1 </t>
+  </si>
+  <si>
+    <t>Velocity= 1 m/s</t>
+  </si>
+  <si>
+    <t>Starting X_Location (Meters)</t>
+  </si>
+  <si>
+    <t>StartingY_Location(Meters)</t>
+  </si>
+  <si>
+    <t>Logo X Location(Meters)</t>
+  </si>
+  <si>
+    <t>Logo y Location(Meters)</t>
+  </si>
+  <si>
+    <t>Ending_x_Location</t>
+  </si>
+  <si>
+    <t>Ending_y_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Accuracy_x </t>
+  </si>
+  <si>
+    <t>Percent_Accuracy _y</t>
+  </si>
+  <si>
+    <t>Time Elapsed (Min, seconds)</t>
+  </si>
+  <si>
+    <t>3min,18sec</t>
+  </si>
+  <si>
+    <t>Total Accuracy</t>
+  </si>
+  <si>
+    <t>2min,29sec</t>
+  </si>
+  <si>
+    <t>1min,42sec</t>
+  </si>
+  <si>
+    <t>28 sec</t>
+  </si>
+  <si>
+    <t>Different logo location</t>
+  </si>
+  <si>
+    <t>Drone starting from far away</t>
+  </si>
+  <si>
+    <t>Drone starting closer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone starting super close </t>
+  </si>
+  <si>
+    <t>Drone starting from negative x and y</t>
+  </si>
+  <si>
+    <t>5min,22sec</t>
+  </si>
+  <si>
+    <t>Velocity= 2 m/s</t>
+  </si>
+  <si>
+    <t>2min,27 sec</t>
+  </si>
+  <si>
+    <t>11sec</t>
+  </si>
+  <si>
+    <t>2min,46sec</t>
+  </si>
+  <si>
+    <t>Velocity = 3m/s</t>
+  </si>
+  <si>
+    <t>Challenge 3 Simulation Tests</t>
+  </si>
+  <si>
+    <t>Challenge 2 Simulation Tests (Image Recognition)</t>
+  </si>
+  <si>
+    <t>Drone starting away from the logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone strating close to the lgo </t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Distance_Traveled</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity </t>
+  </si>
+  <si>
+    <t>3m/s</t>
+  </si>
+  <si>
+    <t>No Obstacles Case</t>
+  </si>
+  <si>
+    <t>4m/s</t>
+  </si>
+  <si>
+    <t>28sec</t>
+  </si>
+  <si>
+    <t>Time Elapsed (sec)</t>
+  </si>
+  <si>
+    <t>Obstacles(Drone goes straight initially)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance_Traveled </t>
+  </si>
+  <si>
+    <t>Drone starting with a negative y location</t>
+  </si>
+  <si>
+    <t>Obstacles(Drone turns intially)</t>
+  </si>
+  <si>
+    <t>Validation Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel a set distance then land </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel up to 100 meters then land </t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Mission Planner Simulation with Python Challenge 1 Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel a search pattern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search pattern is within the bounds of 50 yards horizontal and 100 yards vertical </t>
+  </si>
+  <si>
+    <t>Mission Planner Simulation with Python Search Pattern Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed </t>
+  </si>
+  <si>
+    <t>Drone can find and land on a logo location</t>
+  </si>
+  <si>
+    <t>Takes &lt; 15 minutes to find and land on logo</t>
+  </si>
+  <si>
+    <t>Drone has an accuracy of &gt;=97% on landing on logo location</t>
+  </si>
+  <si>
+    <t>Failed(90%)</t>
+  </si>
+  <si>
+    <t>Failed(85%)</t>
+  </si>
+  <si>
+    <t>Passed (99%)</t>
+  </si>
+  <si>
+    <t>Accuracy &gt;=97% on landing on the set distance while traveling 5m/s</t>
+  </si>
+  <si>
+    <t>Accuracy  &gt;=97% on landing on the set distance while traveling 1m/s</t>
+  </si>
+  <si>
+    <t>Accuracy  &gt;=97% on landing on the set distance while traveling 15m/s</t>
+  </si>
+  <si>
+    <t>Accuracy &gt;=97% on meeting the bounds of 50 yards</t>
+  </si>
+  <si>
+    <t>Passed(Met when traveling &lt;=2m/s)</t>
+  </si>
+  <si>
+    <t>How was it Validated</t>
+  </si>
+  <si>
+    <t>Still needs to be tested</t>
+  </si>
+  <si>
+    <t>Drone can travel in all directions</t>
+  </si>
+  <si>
+    <t>Travel in all directions up to 15m/s</t>
+  </si>
+  <si>
+    <t>Mission Planner Simulation with Python Directional Control Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone can do sharp turns and diagonal turns </t>
+  </si>
+  <si>
+    <t>Can do it up to 15m/s</t>
+  </si>
+  <si>
+    <t>Mission Planner Simulation with Python Obstacle Avoidance Code</t>
+  </si>
+  <si>
+    <t>Drone can navigate around obstacles</t>
+  </si>
+  <si>
+    <t>Drone can recognize obstacles while traveling up to 15m/s</t>
+  </si>
+  <si>
+    <t>Drone can take up to 4 inputs on what manuever to do around the obstacles</t>
+  </si>
+  <si>
+    <t>Drone can navigate around input obstacle course in land in under 15 minutes</t>
+  </si>
+  <si>
+    <t>Drone stops at ending location after navigating out of the course</t>
+  </si>
+  <si>
+    <t>Drone stops manuevering at 100 yards with a accuracy &gt;=97%</t>
+  </si>
+  <si>
+    <t>Passed(98%)</t>
+  </si>
+  <si>
+    <t>Drone can do zig zag pattern</t>
   </si>
 </sst>
 </file>
@@ -342,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -351,6 +598,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,11 +618,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,47 +950,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959F8C1-A434-4B2C-B9C4-60F0097B88C9}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>8</v>
@@ -737,32 +1010,38 @@
         <f>E2*1.09361</f>
         <v>128.90381070000001</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -797,10 +1076,17 @@
         <v>7.4200000000000017</v>
       </c>
       <c r="N3">
+        <f>100-(ABS((Q2-L3)/Q2)*100)</f>
+        <v>75.266666666666666</v>
+      </c>
+      <c r="O3">
         <v>23.41</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -837,10 +1123,17 @@
         <v>4.312910619560995</v>
       </c>
       <c r="N4">
+        <f t="shared" ref="N4:N5" si="2">100-(ABS((Q3-L4)/Q3)*100)</f>
+        <v>85.623631268130012</v>
+      </c>
+      <c r="O4">
         <v>18.149999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -880,10 +1173,17 @@
         <v>1.5643295610999957</v>
       </c>
       <c r="N5">
+        <f t="shared" si="2"/>
+        <v>94.785568129666686</v>
+      </c>
+      <c r="O5">
         <v>16.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -894,12 +1194,19 @@
         <f>_xlfn.STDEV.S(M3:M5)</f>
         <v>2.9296637617644463</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <f>AVERAGE(N3:N5)</f>
+        <v>85.225288688154464</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(O3:O5)</f>
         <v>19.396666666666665</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -913,18 +1220,22 @@
         <f>E7*1.09361</f>
         <v>203.71623436889593</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>214.640701293945</v>
       </c>
@@ -958,10 +1269,17 @@
         <v>9.3954155225260081</v>
       </c>
       <c r="N8">
+        <f>100-(ABS((Q2-L8)/Q2)*100)</f>
+        <v>68.681948258246635</v>
+      </c>
+      <c r="O8">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F9">
         <f>F8-F7</f>
         <v>31.01698297317526</v>
@@ -976,26 +1294,33 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J10" si="2">G9*1.09361</f>
+        <f t="shared" ref="J9:J10" si="3">G9*1.09361</f>
         <v>207.41003717909999</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K10" si="3">H9*1.09361</f>
+        <f t="shared" ref="K9:K10" si="4">H9*1.09361</f>
         <v>248.8164739767</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L10" si="4">K9-J9</f>
+        <f t="shared" ref="L9:L10" si="5">K9-J9</f>
         <v>41.406436797600009</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M10" si="5">L9-30</f>
+        <f t="shared" ref="M9:M10" si="6">L9-30</f>
         <v>11.406436797600009</v>
       </c>
       <c r="N9">
+        <f t="shared" ref="N9:N10" si="7">100-(ABS((Q3-L9)/Q3)*100)</f>
+        <v>61.978544007999972</v>
+      </c>
+      <c r="O9">
         <v>14.42</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -1013,26 +1338,33 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>267.62994195076999</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300.4385405063</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.808598555530011</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8085985555300113</v>
       </c>
       <c r="N10">
+        <f t="shared" si="7"/>
+        <v>90.638004814899958</v>
+      </c>
+      <c r="O10">
         <v>15.39</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>249.23057556152301</v>
       </c>
@@ -1044,12 +1376,19 @@
         <f>_xlfn.STDEV.S(M8:M10)</f>
         <v>4.4972804145451422</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <f>AVERAGE(N8:N10)</f>
+        <v>73.766165693715507</v>
+      </c>
+      <c r="O11">
+        <f>AVERAGE(O8:O10)</f>
         <v>14.770000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>277.38220214843699</v>
       </c>
@@ -1057,18 +1396,22 @@
         <f>E12*1.09361</f>
         <v>303.34795009155215</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F13">
         <f>F12-F11</f>
         <v>30.786900351714962</v>
@@ -1099,10 +1442,17 @@
         <v>5.5546095211300326</v>
       </c>
       <c r="N13">
+        <f>100-(ABS((Q2-L13)/Q2)*100)</f>
+        <v>81.484634929566553</v>
+      </c>
+      <c r="O13">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>10</v>
       </c>
@@ -1120,26 +1470,33 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J15" si="6">G14*1.09361</f>
+        <f t="shared" ref="J14:J15" si="8">G14*1.09361</f>
         <v>384.93267543499996</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K15" si="7">H14*1.09361</f>
+        <f t="shared" ref="K14:K15" si="9">H14*1.09361</f>
         <v>417.13781671169994</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L15" si="8">K14-J14</f>
+        <f t="shared" ref="L14:L15" si="10">K14-J14</f>
         <v>32.205141276699976</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M15" si="9">L14-30</f>
+        <f t="shared" ref="M14:M15" si="11">L14-30</f>
         <v>2.2051412766999761</v>
       </c>
       <c r="N14">
+        <f t="shared" ref="N14:N15" si="12">100-(ABS((Q3-L14)/Q3)*100)</f>
+        <v>92.649529077666742</v>
+      </c>
+      <c r="O14">
         <v>14.92</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>309.4755859375</v>
       </c>
@@ -1157,26 +1514,33 @@
         <v>28</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>452.69220422999996</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>483.197033487</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.50482925700004</v>
       </c>
       <c r="M15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.50482925700003989</v>
       </c>
       <c r="N15">
+        <f t="shared" si="12"/>
+        <v>98.317235809999872</v>
+      </c>
+      <c r="O15">
         <v>13.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>347.68136596679602</v>
       </c>
@@ -1188,28 +1552,39 @@
         <f>_xlfn.STDEV.S(M13:M15)</f>
         <v>2.5693799252212006</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
         <f>AVERAGE(N13:N15)</f>
+        <v>90.817133272411056</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(O13:O15)</f>
         <v>13.813333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
       <c r="F17">
         <f>F16-F15</f>
         <v>41.782223097838425</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>10</v>
       </c>
@@ -1243,10 +1618,17 @@
         <v>0.47639539699991929</v>
       </c>
       <c r="N18">
+        <f>100-(ABS((Q3-L18)/Q3)*100)</f>
+        <v>98.412015343333607</v>
+      </c>
+      <c r="O18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>382.19445800781199</v>
       </c>
@@ -1264,26 +1646,33 @@
         <v>30</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J20" si="10">G19*1.09361</f>
+        <f t="shared" ref="J19:J20" si="13">G19*1.09361</f>
         <v>547.32993280000005</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K20" si="11">H19*1.09361</f>
+        <f t="shared" ref="K19:K20" si="14">H19*1.09361</f>
         <v>577.46960567799999</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L20" si="12">K19-J19</f>
+        <f t="shared" ref="L19:L20" si="15">K19-J19</f>
         <v>30.139672877999942</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M20" si="13">L19-30</f>
+        <f t="shared" ref="M19:M20" si="16">L19-30</f>
         <v>0.1396728779999421</v>
       </c>
       <c r="N19">
+        <f t="shared" ref="N19:N20" si="17">100-(ABS((Q4-L19)/Q4)*100)</f>
+        <v>99.534423740000193</v>
+      </c>
+      <c r="O19">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>418.00067138671801</v>
       </c>
@@ -1301,26 +1690,33 @@
         <v>30</v>
       </c>
       <c r="J20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>579.70078880000005</v>
       </c>
       <c r="K20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>609.92172783709998</v>
       </c>
       <c r="L20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30.220939037099924</v>
       </c>
       <c r="M20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.22093903709992446</v>
       </c>
       <c r="N20">
+        <f t="shared" si="17"/>
+        <v>99.263536543000257</v>
+      </c>
+      <c r="O20">
         <v>38.18</v>
       </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
       <c r="F21">
         <f>F20-F19</f>
         <v>39.158033013305442</v>
@@ -1329,12 +1725,19 @@
         <f>_xlfn.STDEV.S(M18:M20)</f>
         <v>0.17571008092399887</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="8">
         <f>AVERAGE(N18:N20)</f>
+        <v>99.0699918754447</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(O18:O20)</f>
         <v>39.726666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>10</v>
       </c>
@@ -1342,18 +1745,19 @@
         <f>F21-30</f>
         <v>9.1580330133054417</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>11</v>
       </c>
@@ -1361,21 +1765,1086 @@
         <f>(F5+F10+F14+F18+F22)/5</f>
         <v>7.0225556112068146</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="8" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>79</v>
+      </c>
+      <c r="K27" s="16">
+        <v>30</v>
+      </c>
+      <c r="L27" s="16">
+        <v>80</v>
+      </c>
+      <c r="M27" s="16">
+        <v>30</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="16">
+        <f>100-(ABS((L27-J27)/L27)*100)</f>
+        <v>98.75</v>
+      </c>
+      <c r="P27" s="16">
+        <f>100-(ABS((M27-K27)/M27)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>AVERAGE(O27:P27)</f>
+        <v>99.375</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>80</v>
+      </c>
+      <c r="K28" s="16">
+        <v>14</v>
+      </c>
+      <c r="L28" s="16">
+        <v>80</v>
+      </c>
+      <c r="M28" s="16">
+        <v>15</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="16">
+        <f>100-(ABS((L28-J28)/L28)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="P28" s="16">
+        <f>100-(ABS((M28-K28)/M28)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q28" s="16">
+        <f>AVERAGE(O28:P28)</f>
+        <v>96.666666666666657</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="16">
+        <v>53</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
+        <v>16</v>
+      </c>
+      <c r="J29" s="16">
+        <v>80</v>
+      </c>
+      <c r="K29" s="16">
+        <v>15</v>
+      </c>
+      <c r="L29" s="16">
+        <v>80</v>
+      </c>
+      <c r="M29" s="16">
+        <v>15</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="16">
+        <f>100-(ABS((L29-J29)/L29)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="P29" s="16">
+        <f>100-(ABS((M29-K29)/M29)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q29" s="16">
+        <f>AVERAGE(O29:P29)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="16">
+        <v>86</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>79</v>
+      </c>
+      <c r="K30" s="16">
+        <v>14</v>
+      </c>
+      <c r="L30" s="16">
+        <v>80</v>
+      </c>
+      <c r="M30" s="16">
+        <v>15</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="16">
+        <f>100-(ABS((L30-J30)/L30)*100)</f>
+        <v>98.75</v>
+      </c>
+      <c r="P30" s="16">
+        <f>100-(ABS((M30-K30)/M30)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" ref="Q30:Q31" si="18">AVERAGE(O30:P30)</f>
+        <v>96.041666666666657</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="16">
+        <v>-83</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <v>-60</v>
+      </c>
+      <c r="J31" s="16">
+        <v>80</v>
+      </c>
+      <c r="K31" s="16">
+        <v>14</v>
+      </c>
+      <c r="L31" s="16">
+        <v>80</v>
+      </c>
+      <c r="M31" s="16">
+        <v>15</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="16">
+        <f>100-(ABS((L31-J31)/L31)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="P31" s="16">
+        <f>100-(ABS((M31-K31)/M31)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="18"/>
+        <v>96.666666666666657</v>
+      </c>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="17">
+        <f>AVERAGE(Q27:Q31)</f>
+        <v>97.749999999999972</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>79</v>
+      </c>
+      <c r="K34" s="16">
+        <v>15</v>
+      </c>
+      <c r="L34" s="16">
+        <v>80</v>
+      </c>
+      <c r="M34" s="16">
+        <v>15</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="16">
+        <f>100-(ABS((L34-J34)/L34)*100)</f>
+        <v>98.75</v>
+      </c>
+      <c r="P34" s="16">
+        <f>100-(ABS((M34-K34)/M34)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q34" s="16">
+        <f>AVERAGE(O34:P34)</f>
+        <v>99.375</v>
+      </c>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="16">
+        <v>78</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <v>21</v>
+      </c>
+      <c r="J35" s="16">
+        <v>83</v>
+      </c>
+      <c r="K35" s="16">
+        <v>15</v>
+      </c>
+      <c r="L35" s="16">
+        <v>80</v>
+      </c>
+      <c r="M35" s="16">
+        <v>15</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="16">
+        <f>100-(ABS((L35-J35)/L35)*100)</f>
+        <v>96.25</v>
+      </c>
+      <c r="P35" s="16">
+        <f>100-(ABS((M35-K35)/M35)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" ref="Q35:Q36" si="19">AVERAGE(O35:P35)</f>
+        <v>98.125</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F36" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="16">
+        <v>7</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16">
+        <v>-51</v>
+      </c>
+      <c r="J36" s="16">
+        <v>78</v>
+      </c>
+      <c r="K36" s="16">
+        <v>14</v>
+      </c>
+      <c r="L36" s="16">
+        <v>80</v>
+      </c>
+      <c r="M36" s="16">
+        <v>15</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="16">
+        <f>100-(ABS((L36-J36)/L36)*100)</f>
+        <v>97.5</v>
+      </c>
+      <c r="P36" s="16">
+        <f>100-(ABS((M36-K36)/M36)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="19"/>
+        <v>95.416666666666657</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R37" s="8">
+        <f>AVERAGE(Q34:Q36)</f>
+        <v>97.638888888888872</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E43" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="16">
+        <v>100</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16">
+        <v>100</v>
+      </c>
+      <c r="J45" s="16">
+        <f>100-(ABS((I45-G45)/I45)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="K45" s="16">
+        <v>38</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="16">
+        <v>100</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16">
+        <v>100</v>
+      </c>
+      <c r="J46" s="16">
+        <f>100-(ABS((I46-G46)/I46)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="K46" s="16">
+        <v>36</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="16">
+        <v>101</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16">
+        <v>100</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" ref="J47:J48" si="20">100-(ABS((I47-G47)/I47)*100)</f>
+        <v>99</v>
+      </c>
+      <c r="K47" s="16">
+        <v>37</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="16">
+        <v>99</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16">
+        <v>100</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" si="20"/>
+        <v>99</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16">
+        <f>AVERAGE(J45:J47)</f>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="K49" s="16">
+        <f>AVERAGE(K45:K47)</f>
+        <v>37</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="16">
+        <v>102</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16">
+        <v>100</v>
+      </c>
+      <c r="J51" s="16">
+        <f>100-(ABS((I51-G51)/I51)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="K51" s="16">
+        <v>215</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="16">
+        <v>98</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16">
+        <v>100</v>
+      </c>
+      <c r="J52" s="16">
+        <f>100-(ABS((I52-G52)/I52)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="K52" s="16">
+        <v>175</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16">
+        <f>AVERAGE(K51:K52)</f>
+        <v>195</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E55" s="16"/>
+      <c r="F55" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="16">
+        <v>99</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16">
+        <v>100</v>
+      </c>
+      <c r="J55" s="16">
+        <f>100-(ABS((I55-G55)/I55)*100)</f>
+        <v>99</v>
+      </c>
+      <c r="K55" s="16">
+        <v>260</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="16">
+        <v>98</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16">
+        <v>100</v>
+      </c>
+      <c r="J56" s="16">
+        <f>100-(ABS((I56-G56)/I56)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="K56" s="16">
+        <v>235</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G22:N22"/>
+  <mergeCells count="9">
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="G22:O22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="G7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A364C3-81BB-4B9E-8791-8401B666743B}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Senior Design Simulation Test Data.xlsx
+++ b/Senior Design Simulation Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerem\Videos\Senior Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ACB8D-F30F-4A61-B938-4684A4FA3B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C7947-AB9A-4F19-B2F8-839184EF63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A882684E-0EA5-487D-806E-8C4C12A3FC99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t xml:space="preserve">Simulation Data Table </t>
   </si>
@@ -254,9 +254,6 @@
     <t>2min,46sec</t>
   </si>
   <si>
-    <t>Velocity = 3m/s</t>
-  </si>
-  <si>
     <t>Challenge 3 Simulation Tests</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>How was it Validated</t>
   </si>
   <si>
-    <t>Still needs to be tested</t>
-  </si>
-  <si>
     <t>Drone can travel in all directions</t>
   </si>
   <si>
@@ -416,13 +410,97 @@
     <t>Drone stops at ending location after navigating out of the course</t>
   </si>
   <si>
-    <t>Drone stops manuevering at 100 yards with a accuracy &gt;=97%</t>
-  </si>
-  <si>
     <t>Passed(98%)</t>
   </si>
   <si>
     <t>Drone can do zig zag pattern</t>
+  </si>
+  <si>
+    <t>Avg Time Elapsed</t>
+  </si>
+  <si>
+    <t>Avg Accuracy</t>
+  </si>
+  <si>
+    <t>Velocity = 3m/s Bad Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenge 2 50 Yard Boundaries Data </t>
+  </si>
+  <si>
+    <t>Left Boundary Measured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Boundary Measured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary Actual </t>
+  </si>
+  <si>
+    <t>Test 1 (1m/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Accuracy </t>
+  </si>
+  <si>
+    <t>Total Accucracy</t>
+  </si>
+  <si>
+    <t>25sec</t>
+  </si>
+  <si>
+    <t>Drone starting close to the logo</t>
+  </si>
+  <si>
+    <t>32sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone starting far away from the logo </t>
+  </si>
+  <si>
+    <t>Drone stops manuevering at 100 yards with  accuracy &gt;=97%</t>
+  </si>
+  <si>
+    <t>3m/ss</t>
+  </si>
+  <si>
+    <t>Test speed</t>
+  </si>
+  <si>
+    <t>X distance Traveled Measured</t>
+  </si>
+  <si>
+    <t>X Actual</t>
+  </si>
+  <si>
+    <t>Time Elapsed</t>
+  </si>
+  <si>
+    <t>17sec</t>
+  </si>
+  <si>
+    <t>19sec</t>
+  </si>
+  <si>
+    <t>18sec</t>
+  </si>
+  <si>
+    <t>Test 2 (1m/s)</t>
+  </si>
+  <si>
+    <t>Test 4 (1m/s)</t>
+  </si>
+  <si>
+    <t>Test5(1m/s)</t>
+  </si>
+  <si>
+    <t>Test 3 (1m/s)</t>
+  </si>
+  <si>
+    <t>Passed (98%)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -571,6 +649,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -580,16 +671,14 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -599,7 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,6 +724,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959F8C1-A434-4B2C-B9C4-60F0097B88C9}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,41 +1064,41 @@
     <col min="6" max="6" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>8</v>
@@ -1010,38 +1110,38 @@
         <f>E2*1.09361</f>
         <v>128.90381070000001</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1058,28 +1158,30 @@
         <f>E3*1.09361</f>
         <v>171.27244931999999</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="15">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="15">
         <v>37.42</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="15">
         <f>K3-J3</f>
         <v>37.42</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="15">
         <f>L3-30</f>
         <v>7.4200000000000017</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="15">
         <f>100-(ABS((Q2-L3)/Q2)*100)</f>
         <v>75.266666666666666</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="15">
         <v>23.41</v>
       </c>
       <c r="Q3">
@@ -1097,36 +1199,36 @@
         <f>F3-F2</f>
         <v>42.368638619999984</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="15">
         <v>45.850179900000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="15">
         <v>77.225999999999999</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="15">
         <f>G4*1.09361</f>
         <v>50.142215240439</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="15">
         <f>H4*1.09361</f>
         <v>84.455125859999995</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="15">
         <f t="shared" ref="L4:L5" si="0">K4-J4</f>
         <v>34.312910619560995</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="15">
         <f t="shared" ref="M4:M5" si="1">L4-30</f>
         <v>4.312910619560995</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="15">
         <f t="shared" ref="N4:N5" si="2">100-(ABS((Q3-L4)/Q3)*100)</f>
         <v>85.623631268130012</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="15">
         <v>18.149999999999999</v>
       </c>
       <c r="Q4">
@@ -1147,36 +1249,36 @@
         <f>F4-30</f>
         <v>12.368638619999984</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="15">
         <v>90.246489999999994</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="15">
         <v>119.10899999999999</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="15">
         <f>G5*1.09361</f>
         <v>98.694463928899992</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="15">
         <f>H5*1.09361</f>
         <v>130.25879348999999</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>31.564329561099996</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="15">
         <f t="shared" si="1"/>
         <v>1.5643295610999957</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="15">
         <f t="shared" si="2"/>
         <v>94.785568129666686</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="15">
         <v>16.63</v>
       </c>
       <c r="Q5">
@@ -1190,15 +1292,21 @@
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15">
         <f>_xlfn.STDEV.S(M3:M5)</f>
         <v>2.9296637617644463</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="16">
         <f>AVERAGE(N3:N5)</f>
         <v>85.225288688154464</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="15">
         <f>AVERAGE(O3:O5)</f>
         <v>19.396666666666665</v>
       </c>
@@ -1220,17 +1328,17 @@
         <f>E7*1.09361</f>
         <v>203.71623436889593</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
       <c r="Q7">
         <v>30</v>
       </c>
@@ -1243,36 +1351,36 @@
         <f>E8*1.09361</f>
         <v>234.73321734207119</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="15">
         <v>131.72564</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="15">
         <v>167.7489166</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="15">
         <f>G8*1.09361</f>
         <v>144.05647716039999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="15">
         <f>H8*1.09361</f>
         <v>183.451892682926</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <f>K8-J8</f>
         <v>39.395415522526008</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="15">
         <f>L8-30</f>
         <v>9.3954155225260081</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="15">
         <f>100-(ABS((Q2-L8)/Q2)*100)</f>
         <v>68.681948258246635</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="15">
         <v>14.5</v>
       </c>
       <c r="Q8">
@@ -1284,36 +1392,36 @@
         <f>F8-F7</f>
         <v>31.01698297317526</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="15">
         <v>189.65630999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="15">
         <v>227.51847000000001</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="15">
         <f t="shared" ref="J9:J10" si="3">G9*1.09361</f>
         <v>207.41003717909999</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="15">
         <f t="shared" ref="K9:K10" si="4">H9*1.09361</f>
         <v>248.8164739767</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
         <f t="shared" ref="L9:L10" si="5">K9-J9</f>
         <v>41.406436797600009</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="15">
         <f t="shared" ref="M9:M10" si="6">L9-30</f>
         <v>11.406436797600009</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="15">
         <f t="shared" ref="N9:N10" si="7">100-(ABS((Q3-L9)/Q3)*100)</f>
         <v>61.978544007999972</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="15">
         <v>14.42</v>
       </c>
       <c r="Q9">
@@ -1328,36 +1436,36 @@
         <f>F9-30</f>
         <v>1.01698297317526</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>244.72155699999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="15">
         <v>274.72183000000001</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="15">
         <f t="shared" si="3"/>
         <v>267.62994195076999</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="15">
         <f t="shared" si="4"/>
         <v>300.4385405063</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <f t="shared" si="5"/>
         <v>32.808598555530011</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="15">
         <f t="shared" si="6"/>
         <v>2.8085985555300113</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="15">
         <f t="shared" si="7"/>
         <v>90.638004814899958</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="15">
         <v>15.39</v>
       </c>
       <c r="Q10">
@@ -1372,15 +1480,21 @@
         <f>E11*1.09361</f>
         <v>272.56104973983719</v>
       </c>
-      <c r="M11">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15">
         <f>_xlfn.STDEV.S(M8:M10)</f>
         <v>4.4972804145451422</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="16">
         <f>AVERAGE(N8:N10)</f>
         <v>73.766165693715507</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="15">
         <f>AVERAGE(O8:O10)</f>
         <v>14.770000000000001</v>
       </c>
@@ -1396,17 +1510,17 @@
         <f>E12*1.09361</f>
         <v>303.34795009155215</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="Q12">
         <v>30</v>
       </c>
@@ -1416,36 +1530,36 @@
         <f>F12-F11</f>
         <v>30.786900351714962</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="15">
         <v>292.94830000000002</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="15">
         <v>325.45953300000002</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="15">
         <f>G13*1.09361</f>
         <v>320.37119036299998</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="15">
         <f>H13*1.09361</f>
         <v>355.92579988413002</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="15">
         <f>K13-J13</f>
         <v>35.554609521130033</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="15">
         <f>L13-30</f>
         <v>5.5546095211300326</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="15">
         <f>100-(ABS((Q2-L13)/Q2)*100)</f>
         <v>81.484634929566553</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="15">
         <v>13.5</v>
       </c>
       <c r="Q13">
@@ -1460,36 +1574,36 @@
         <f>F13-30</f>
         <v>0.7869003517149622</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="15">
         <v>351.98349999999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="15">
         <v>381.43196999999998</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="15">
         <f t="shared" ref="J14:J15" si="8">G14*1.09361</f>
         <v>384.93267543499996</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="15">
         <f t="shared" ref="K14:K15" si="9">H14*1.09361</f>
         <v>417.13781671169994</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <f t="shared" ref="L14:L15" si="10">K14-J14</f>
         <v>32.205141276699976</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="15">
         <f t="shared" ref="M14:M15" si="11">L14-30</f>
         <v>2.2051412766999761</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="15">
         <f t="shared" ref="N14:N15" si="12">100-(ABS((Q3-L14)/Q3)*100)</f>
         <v>92.649529077666742</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="15">
         <v>14.92</v>
       </c>
       <c r="Q14">
@@ -1504,36 +1618,36 @@
         <f>E15*1.09361</f>
         <v>338.44559553710934</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="15">
         <v>413.94299999999998</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="15">
         <v>441.83670000000001</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="15">
         <f t="shared" si="8"/>
         <v>452.69220422999996</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="15">
         <f t="shared" si="9"/>
         <v>483.197033487</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
         <f t="shared" si="10"/>
         <v>30.50482925700004</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="15">
         <f t="shared" si="11"/>
         <v>0.50482925700003989</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="15">
         <f t="shared" si="12"/>
         <v>98.317235809999872</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="15">
         <v>13.02</v>
       </c>
       <c r="Q15">
@@ -1548,15 +1662,21 @@
         <f>E16*1.09361</f>
         <v>380.22781863494777</v>
       </c>
-      <c r="M16">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <f>_xlfn.STDEV.S(M13:M15)</f>
         <v>2.5693799252212006</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="16">
         <f>AVERAGE(N13:N15)</f>
         <v>90.817133272411056</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="15">
         <f>AVERAGE(O13:O15)</f>
         <v>13.813333333333333</v>
       </c>
@@ -1569,17 +1689,17 @@
         <f>F16-F15</f>
         <v>41.782223097838425</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="Q17">
         <v>30</v>
       </c>
@@ -1592,36 +1712,36 @@
         <f>F17-30</f>
         <v>11.782223097838425</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="15">
         <v>470.42</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="15">
         <v>498.28769999999997</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="15">
         <f>G18*1.09361</f>
         <v>514.45601620000002</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="15">
         <f>H18*1.09361</f>
         <v>544.93241159699994</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="15">
         <f>K18-J18</f>
         <v>30.476395396999919</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="15">
         <f>L18-30</f>
         <v>0.47639539699991929</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="15">
         <f>100-(ABS((Q3-L18)/Q3)*100)</f>
         <v>98.412015343333607</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="15">
         <v>43</v>
       </c>
       <c r="Q18">
@@ -1636,36 +1756,36 @@
         <f>E19*1.09361</f>
         <v>417.97168122192323</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="15">
         <v>500.48</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="15">
         <v>528.03980000000001</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="15">
         <f t="shared" ref="J19:J20" si="13">G19*1.09361</f>
         <v>547.32993280000005</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="15">
         <f t="shared" ref="K19:K20" si="14">H19*1.09361</f>
         <v>577.46960567799999</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="15">
         <f t="shared" ref="L19:L20" si="15">K19-J19</f>
         <v>30.139672877999942</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="15">
         <f t="shared" ref="M19:M20" si="16">L19-30</f>
         <v>0.1396728779999421</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="15">
         <f t="shared" ref="N19:N20" si="17">100-(ABS((Q4-L19)/Q4)*100)</f>
         <v>99.534423740000193</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="15">
         <v>38</v>
       </c>
       <c r="Q19">
@@ -1680,36 +1800,36 @@
         <f>E20*1.09361</f>
         <v>457.12971423522868</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="15">
         <v>530.08000000000004</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="15">
         <v>557.71411000000001</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="15">
         <f t="shared" si="13"/>
         <v>579.70078880000005</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="15">
         <f t="shared" si="14"/>
         <v>609.92172783709998</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="15">
         <f t="shared" si="15"/>
         <v>30.220939037099924</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="15">
         <f t="shared" si="16"/>
         <v>0.22093903709992446</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="15">
         <f t="shared" si="17"/>
         <v>99.263536543000257</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="15">
         <v>38.18</v>
       </c>
       <c r="Q20">
@@ -1717,885 +1837,1376 @@
       </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F21">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15">
+        <v>99.132400116652079</v>
+      </c>
+      <c r="O21" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F22">
         <f>F20-F19</f>
         <v>39.158033013305442</v>
       </c>
-      <c r="M21">
-        <f>_xlfn.STDEV.S(M18:M20)</f>
-        <v>0.17571008092399887</v>
-      </c>
-      <c r="N21" s="8">
-        <f>AVERAGE(N18:N20)</f>
-        <v>99.0699918754447</v>
-      </c>
-      <c r="O21">
-        <f>AVERAGE(O18:O20)</f>
-        <v>39.726666666666667</v>
-      </c>
-      <c r="Q21">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16">
+        <f>AVERAGE(N18:N21)</f>
+        <v>99.085593935746545</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="Q22">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <f>F21-30</f>
-        <v>9.1580330133054417</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f>F22-30</f>
+        <v>9.1580330133054417</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="19">
+        <v>27.576000000000001</v>
+      </c>
+      <c r="K25" s="19">
+        <v>27.431999999999999</v>
+      </c>
+      <c r="L25" s="19">
+        <f>100-(ABS((K25-J25)/K25)*100)</f>
+        <v>99.475065616797892</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="19">
+        <v>27.803000000000001</v>
+      </c>
+      <c r="K26" s="19">
+        <v>27.431999999999999</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" ref="L26:L28" si="18">100-(ABS((K26-J26)/K26)*100)</f>
+        <v>98.647564887722353</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="19">
+        <v>28.94</v>
+      </c>
+      <c r="K27" s="19">
+        <v>27.431999999999999</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="18"/>
+        <v>94.502770487022445</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="19">
+        <v>29.49</v>
+      </c>
+      <c r="K28" s="19">
+        <v>27.431999999999999</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="18"/>
+        <v>92.497812773403325</v>
+      </c>
+      <c r="M28" s="19">
+        <v>16</v>
+      </c>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
-        <f>(F5+F10+F14+F18+F22)/5</f>
+      <c r="F29">
+        <f>(F5+F10+F14+F18+F23)/5</f>
         <v>7.0225556112068146</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="G24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="s">
+      <c r="L29" s="27">
+        <f>AVERAGE(L25:L28)</f>
+        <v>96.280803441236515</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="G30" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F31" s="15"/>
+      <c r="G31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16" t="s">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q32" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F27" s="16" t="s">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G33" s="15">
         <v>0</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15">
         <v>0</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J33" s="15">
         <v>79</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K33" s="15">
         <v>30</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L33" s="15">
         <v>80</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M33" s="15">
         <v>30</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="N33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="16">
-        <f>100-(ABS((L27-J27)/L27)*100)</f>
+      <c r="O33" s="15">
+        <f>100-(ABS((L33-J33)/L33)*100)</f>
         <v>98.75</v>
       </c>
-      <c r="P27" s="16">
-        <f>100-(ABS((M27-K27)/M27)*100)</f>
+      <c r="P33" s="15">
+        <f>100-(ABS((M33-K33)/M33)*100)</f>
         <v>100</v>
       </c>
-      <c r="Q27" s="16">
-        <f>AVERAGE(O27:P27)</f>
+      <c r="Q33" s="15">
+        <f>AVERAGE(O33:P33)</f>
         <v>99.375</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F28" s="16" t="s">
+    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G34" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15">
         <v>0</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J34" s="15">
         <v>80</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K34" s="15">
         <v>14</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L34" s="15">
         <v>80</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M34" s="15">
         <v>15</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="16">
-        <f>100-(ABS((L28-J28)/L28)*100)</f>
+      <c r="O34" s="15">
+        <f>100-(ABS((L34-J34)/L34)*100)</f>
         <v>100</v>
       </c>
-      <c r="P28" s="16">
-        <f>100-(ABS((M28-K28)/M28)*100)</f>
+      <c r="P34" s="15">
+        <f>100-(ABS((M34-K34)/M34)*100)</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="Q28" s="16">
-        <f>AVERAGE(O28:P28)</f>
+      <c r="Q34" s="15">
+        <f>AVERAGE(O34:P34)</f>
         <v>96.666666666666657</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F29" s="16" t="s">
+    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G35" s="15">
         <v>53</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15">
         <v>16</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J35" s="15">
         <v>80</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K35" s="15">
         <v>15</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L35" s="15">
         <v>80</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M35" s="15">
         <v>15</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="16">
-        <f>100-(ABS((L29-J29)/L29)*100)</f>
+      <c r="O35" s="15">
+        <f>100-(ABS((L35-J35)/L35)*100)</f>
         <v>100</v>
       </c>
-      <c r="P29" s="16">
-        <f>100-(ABS((M29-K29)/M29)*100)</f>
-        <v>100</v>
-      </c>
-      <c r="Q29" s="16">
-        <f>AVERAGE(O29:P29)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F30" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="16">
-        <v>86</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <v>79</v>
-      </c>
-      <c r="K30" s="16">
-        <v>14</v>
-      </c>
-      <c r="L30" s="16">
-        <v>80</v>
-      </c>
-      <c r="M30" s="16">
-        <v>15</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="16">
-        <f>100-(ABS((L30-J30)/L30)*100)</f>
-        <v>98.75</v>
-      </c>
-      <c r="P30" s="16">
-        <f>100-(ABS((M30-K30)/M30)*100)</f>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="Q30" s="16">
-        <f t="shared" ref="Q30:Q31" si="18">AVERAGE(O30:P30)</f>
-        <v>96.041666666666657</v>
-      </c>
-    </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="16">
-        <v>-83</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16">
-        <v>-60</v>
-      </c>
-      <c r="J31" s="16">
-        <v>80</v>
-      </c>
-      <c r="K31" s="16">
-        <v>14</v>
-      </c>
-      <c r="L31" s="16">
-        <v>80</v>
-      </c>
-      <c r="M31" s="16">
-        <v>15</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="16">
-        <f>100-(ABS((L31-J31)/L31)*100)</f>
-        <v>100</v>
-      </c>
-      <c r="P31" s="16">
-        <f>100-(ABS((M31-K31)/M31)*100)</f>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="Q31" s="16">
-        <f t="shared" si="18"/>
-        <v>96.666666666666657</v>
-      </c>
-    </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" s="17">
-        <f>AVERAGE(Q27:Q31)</f>
-        <v>97.749999999999972</v>
-      </c>
-    </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F33" s="16"/>
-      <c r="G33" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F34" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16">
-        <v>0</v>
-      </c>
-      <c r="J34" s="16">
-        <v>79</v>
-      </c>
-      <c r="K34" s="16">
-        <v>15</v>
-      </c>
-      <c r="L34" s="16">
-        <v>80</v>
-      </c>
-      <c r="M34" s="16">
-        <v>15</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O34" s="16">
-        <f>100-(ABS((L34-J34)/L34)*100)</f>
-        <v>98.75</v>
-      </c>
-      <c r="P34" s="16">
-        <f>100-(ABS((M34-K34)/M34)*100)</f>
-        <v>100</v>
-      </c>
-      <c r="Q34" s="16">
-        <f>AVERAGE(O34:P34)</f>
-        <v>99.375</v>
-      </c>
-    </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="16">
-        <v>78</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16">
-        <v>21</v>
-      </c>
-      <c r="J35" s="16">
-        <v>83</v>
-      </c>
-      <c r="K35" s="16">
-        <v>15</v>
-      </c>
-      <c r="L35" s="16">
-        <v>80</v>
-      </c>
-      <c r="M35" s="16">
-        <v>15</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="16">
-        <f>100-(ABS((L35-J35)/L35)*100)</f>
-        <v>96.25</v>
-      </c>
-      <c r="P35" s="16">
+      <c r="P35" s="15">
         <f>100-(ABS((M35-K35)/M35)*100)</f>
         <v>100</v>
       </c>
-      <c r="Q35" s="16">
-        <f t="shared" ref="Q35:Q36" si="19">AVERAGE(O35:P35)</f>
-        <v>98.125</v>
-      </c>
-    </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="F36" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="16">
-        <v>7</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16">
-        <v>-51</v>
-      </c>
-      <c r="J36" s="16">
+      <c r="Q35" s="15">
+        <f>AVERAGE(O35:P35)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="15">
+        <v>81</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15">
+        <v>17</v>
+      </c>
+      <c r="J36" s="15">
         <v>78</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>14</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>80</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="15">
         <v>15</v>
       </c>
-      <c r="N36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="16">
+      <c r="N36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" s="15">
         <f>100-(ABS((L36-J36)/L36)*100)</f>
         <v>97.5</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="15">
         <f>100-(ABS((M36-K36)/M36)*100)</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="15">
+        <f>AVERAGE(O36:P36)</f>
+        <v>95.416666666666657</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="15">
+        <v>86</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>79</v>
+      </c>
+      <c r="K37" s="15">
+        <v>14</v>
+      </c>
+      <c r="L37" s="15">
+        <v>80</v>
+      </c>
+      <c r="M37" s="15">
+        <v>15</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="15">
+        <f>100-(ABS((L37-J37)/L37)*100)</f>
+        <v>98.75</v>
+      </c>
+      <c r="P37" s="15">
+        <f>100-(ABS((M37-K37)/M37)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q37" s="15">
+        <f t="shared" ref="Q37:Q38" si="19">AVERAGE(O37:P37)</f>
+        <v>96.041666666666657</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="15">
+        <v>-83</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15">
+        <v>-60</v>
+      </c>
+      <c r="J38" s="15">
+        <v>80</v>
+      </c>
+      <c r="K38" s="15">
+        <v>14</v>
+      </c>
+      <c r="L38" s="15">
+        <v>80</v>
+      </c>
+      <c r="M38" s="15">
+        <v>15</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="15">
+        <f>100-(ABS((L38-J38)/L38)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="P38" s="15">
+        <f>100-(ABS((M38-K38)/M38)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q38" s="15">
         <f t="shared" si="19"/>
+        <v>96.666666666666657</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F39" s="15"/>
+      <c r="G39" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39" s="16">
+        <f>AVERAGE(Q33:Q38)</f>
+        <v>97.361111111111086</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="15">
+        <v>78</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15">
+        <v>20</v>
+      </c>
+      <c r="J41" s="15">
+        <v>78</v>
+      </c>
+      <c r="K41" s="15">
+        <v>14</v>
+      </c>
+      <c r="L41" s="15">
+        <v>80</v>
+      </c>
+      <c r="M41" s="15">
+        <v>15</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" s="15">
+        <f t="shared" ref="O41:P43" si="20">100-(ABS((L41-J41)/L41)*100)</f>
+        <v>97.5</v>
+      </c>
+      <c r="P41" s="15">
+        <f t="shared" si="20"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q41" s="15">
+        <f t="shared" ref="Q41:Q43" si="21">AVERAGE(O41:P41)</f>
         <v>95.416666666666657</v>
       </c>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="G37" s="8" t="s">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F43" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>79</v>
+      </c>
+      <c r="K44" s="15">
+        <v>15</v>
+      </c>
+      <c r="L44" s="15">
+        <v>80</v>
+      </c>
+      <c r="M44" s="15">
+        <v>15</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="15">
+        <f>100-(ABS((L44-J44)/L44)*100)</f>
+        <v>98.75</v>
+      </c>
+      <c r="P44" s="15">
+        <f>100-(ABS((M44-K44)/M44)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q44" s="15">
+        <f>AVERAGE(O44:P44)</f>
+        <v>99.375</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="15">
+        <v>78</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15">
+        <v>21</v>
+      </c>
+      <c r="J45" s="15">
+        <v>83</v>
+      </c>
+      <c r="K45" s="15">
+        <v>15</v>
+      </c>
+      <c r="L45" s="15">
+        <v>80</v>
+      </c>
+      <c r="M45" s="15">
+        <v>15</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="15">
+        <f>100-(ABS((L45-J45)/L45)*100)</f>
+        <v>96.25</v>
+      </c>
+      <c r="P45" s="15">
+        <f>100-(ABS((M45-K45)/M45)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Q45" s="15">
+        <f t="shared" ref="Q45:Q46" si="22">AVERAGE(O45:P45)</f>
+        <v>98.125</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F46" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="15">
+        <v>7</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15">
+        <v>-51</v>
+      </c>
+      <c r="J46" s="15">
+        <v>78</v>
+      </c>
+      <c r="K46" s="15">
+        <v>14</v>
+      </c>
+      <c r="L46" s="15">
+        <v>80</v>
+      </c>
+      <c r="M46" s="15">
+        <v>15</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="15">
+        <f>100-(ABS((L46-J46)/L46)*100)</f>
+        <v>97.5</v>
+      </c>
+      <c r="P46" s="15">
+        <f>100-(ABS((M46-K46)/M46)*100)</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="Q46" s="15">
+        <f t="shared" si="22"/>
+        <v>95.416666666666657</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="G47" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R47" s="8">
+        <f>AVERAGE(Q44:Q46)</f>
+        <v>97.638888888888872</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K49" t="s">
+        <v>118</v>
+      </c>
+      <c r="L49" t="s">
+        <v>120</v>
+      </c>
+      <c r="M49" t="s">
+        <v>121</v>
+      </c>
+      <c r="N49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <v>49</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <f>100-(ABS((K50-I50)/K50)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <f>100-(ABS((K50-J50)/K50)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="N50">
+        <f>AVERAGE(L50:M50)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <v>49</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51:L54" si="23">100-(ABS((K51-I51)/K51)*100)</f>
+        <v>96</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51:M54" si="24">100-(ABS((K51-J51)/K51)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51:N54" si="25">AVERAGE(L51:M51)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>139</v>
+      </c>
+      <c r="I52">
+        <v>48</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="23"/>
+        <v>96</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="25"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <v>50</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54">
+        <v>49</v>
+      </c>
+      <c r="J54">
+        <v>48</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="23"/>
+        <v>98</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="24"/>
+        <v>96</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="25"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="M55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N55">
+        <f>AVERAGE(N50:N54)</f>
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E56" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="8">
-        <f>AVERAGE(Q34:Q36)</f>
-        <v>97.638888888888872</v>
-      </c>
-    </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="15">
+        <v>100</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15">
+        <v>100</v>
+      </c>
+      <c r="J58" s="15">
+        <f>100-(ABS((I58-G58)/I58)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="K58" s="15">
         <v>38</v>
       </c>
-      <c r="K38" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="L58" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+    </row>
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="15">
+        <v>100</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15">
+        <v>100</v>
+      </c>
+      <c r="J59" s="15">
+        <f>100-(ABS((I59-G59)/I59)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="K59" s="15">
         <v>36</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L59" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E60" s="15"/>
+      <c r="F60" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="15">
+        <v>101</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15">
+        <v>100</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" ref="J60:J61" si="26">100-(ABS((I60-G60)/I60)*100)</f>
+        <v>99</v>
+      </c>
+      <c r="K60" s="15">
         <v>37</v>
       </c>
-      <c r="O38" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E43" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16" t="s">
+      <c r="L60" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+    </row>
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E61" s="15"/>
+      <c r="F61" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="15">
+        <v>99</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15">
+        <v>100</v>
+      </c>
+      <c r="J61" s="15">
+        <f t="shared" si="26"/>
+        <v>99</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+    </row>
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15">
+        <f>AVERAGE(J58:J60)</f>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="K62" s="15">
+        <f>AVERAGE(K58:K60)</f>
+        <v>37</v>
+      </c>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+    </row>
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="16" t="s">
+      <c r="K63" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+    </row>
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E64" s="15"/>
+      <c r="F64" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-    </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E45" s="16"/>
-      <c r="F45" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="16">
+      <c r="G64" s="15">
+        <v>102</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15">
         <v>100</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16">
+      <c r="J64" s="15">
+        <f>100-(ABS((I64-G64)/I64)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="K64" s="15">
+        <v>215</v>
+      </c>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E65" s="15"/>
+      <c r="F65" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="15">
+        <v>97</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15">
         <v>100</v>
       </c>
-      <c r="J45" s="16">
-        <f>100-(ABS((I45-G45)/I45)*100)</f>
+      <c r="J65" s="15">
+        <f t="shared" ref="J65:J66" si="27">100-(ABS((I65-G65)/I65)*100)</f>
+        <v>97</v>
+      </c>
+      <c r="K65" s="15">
+        <v>210</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E66" s="15"/>
+      <c r="F66" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="15">
         <v>100</v>
       </c>
-      <c r="K45" s="16">
-        <v>38</v>
-      </c>
-      <c r="L45" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-    </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E46" s="16"/>
-      <c r="F46" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="16">
+      <c r="H66" s="15"/>
+      <c r="I66" s="15">
         <v>100</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16">
+      <c r="J66" s="15">
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="J46" s="16">
-        <f>100-(ABS((I46-G46)/I46)*100)</f>
+      <c r="K66" s="15">
+        <v>182</v>
+      </c>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E67" s="15"/>
+      <c r="F67" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="15">
+        <v>98</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15">
         <v>100</v>
       </c>
-      <c r="K46" s="16">
-        <v>36</v>
-      </c>
-      <c r="L46" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-    </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E47" s="16"/>
-      <c r="F47" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="16">
-        <v>101</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16">
+      <c r="J67" s="15">
+        <f>100-(ABS((I67-G67)/I67)*100)</f>
+        <v>98</v>
+      </c>
+      <c r="K67" s="15">
+        <v>175</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+    </row>
+    <row r="68" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15">
+        <f>AVERAGE(J64:J67)</f>
+        <v>98.25</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K68" s="15">
+        <f>AVERAGE(K64:K67)</f>
+        <v>195.5</v>
+      </c>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+    </row>
+    <row r="70" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E70" s="15"/>
+      <c r="F70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="15">
+        <v>99</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15">
         <v>100</v>
       </c>
-      <c r="J47" s="16">
-        <f t="shared" ref="J47:J48" si="20">100-(ABS((I47-G47)/I47)*100)</f>
+      <c r="J70" s="15">
+        <f>100-(ABS((I70-G70)/I70)*100)</f>
         <v>99</v>
       </c>
-      <c r="K47" s="16">
-        <v>37</v>
-      </c>
-      <c r="L47" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-    </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.3">
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="16">
+      <c r="K70" s="15">
+        <v>260</v>
+      </c>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+    </row>
+    <row r="71" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E71" s="15"/>
+      <c r="F71" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" s="15">
+        <v>97</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15">
+        <v>100</v>
+      </c>
+      <c r="J71" s="15">
+        <f t="shared" ref="J71:J73" si="28">100-(ABS((I71-G71)/I71)*100)</f>
+        <v>97</v>
+      </c>
+      <c r="K71" s="15">
+        <v>250</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+    </row>
+    <row r="72" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E72" s="15"/>
+      <c r="F72" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" s="15">
         <v>99</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16">
+      <c r="H72" s="15"/>
+      <c r="I72" s="15">
         <v>100</v>
       </c>
-      <c r="J48" s="16">
-        <f t="shared" si="20"/>
+      <c r="J72" s="15">
+        <f t="shared" si="28"/>
         <v>99</v>
       </c>
-      <c r="K48" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-    </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16">
-        <f>AVERAGE(J45:J47)</f>
-        <v>99.666666666666671</v>
-      </c>
-      <c r="K49" s="16">
-        <f>AVERAGE(K45:K47)</f>
-        <v>37</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-    </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-    </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E51" s="16"/>
-      <c r="F51" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="16">
-        <v>102</v>
-      </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16">
+      <c r="K72" s="15">
+        <v>211</v>
+      </c>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+    </row>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="15">
+        <v>98</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15">
         <v>100</v>
       </c>
-      <c r="J51" s="16">
-        <f>100-(ABS((I51-G51)/I51)*100)</f>
+      <c r="J73" s="15">
+        <f t="shared" si="28"/>
         <v>98</v>
       </c>
-      <c r="K51" s="16">
-        <v>215</v>
-      </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-    </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="16">
-        <v>98</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16">
-        <v>100</v>
-      </c>
-      <c r="J52" s="16">
-        <f>100-(ABS((I52-G52)/I52)*100)</f>
-        <v>98</v>
-      </c>
-      <c r="K52" s="16">
-        <v>175</v>
-      </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-    </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16">
-        <f>AVERAGE(K51:K52)</f>
-        <v>195</v>
-      </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-    </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-    </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="16">
-        <v>99</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16">
-        <v>100</v>
-      </c>
-      <c r="J55" s="16">
-        <f>100-(ABS((I55-G55)/I55)*100)</f>
-        <v>99</v>
-      </c>
-      <c r="K55" s="16">
-        <v>260</v>
-      </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-    </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" s="16">
-        <v>98</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16">
-        <v>100</v>
-      </c>
-      <c r="J56" s="16">
-        <f>100-(ABS((I56-G56)/I56)*100)</f>
-        <v>98</v>
-      </c>
-      <c r="K56" s="16">
+      <c r="K73" s="15">
         <v>235</v>
       </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-    </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G24:R24"/>
-    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="E56:P56"/>
     <mergeCell ref="G12:O12"/>
     <mergeCell ref="G17:O17"/>
-    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="G23:O23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G1:O1"/>
@@ -2610,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A364C3-81BB-4B9E-8791-8401B666743B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2623,219 +3234,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="B11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="D12" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="C13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22" t="s">
+      <c r="C16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22" t="s">
+      <c r="B17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
